--- a/汇报演出进程表.xlsx
+++ b/汇报演出进程表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/2017-TsinghuaMEM-2／2017-TSINGHUA-MEM-Group9/2017-TSINGHUA-MEM-Group9/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>编号</t>
     <rPh sb="0" eb="1">
@@ -227,22 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要选出讲故事人</t>
-    <rPh sb="0" eb="1">
-      <t>xu y</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xuan ch</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jiang gu sh</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生与老师互动</t>
     <rPh sb="0" eb="1">
       <t>xue sh</t>
@@ -260,19 +244,6 @@
   </si>
   <si>
     <t>2:16 - 2:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定互动内容</t>
-    <rPh sb="0" eb="1">
-      <t>que d</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hu dong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>nei r</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,7 +345,478 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确定哪些人，有哪些社团？</t>
+    <t>时长（min）</t>
+    <rPh sb="0" eb="1">
+      <t>shi chang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有同学</t>
+    <rPh sb="0" eb="1">
+      <t>suo y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人的采访视频，每人几秒钟</t>
+    <rPh sb="0" eb="1">
+      <t>mei ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cai f</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei ren</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji miao zh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师，同学</t>
+    <rPh sb="0" eb="1">
+      <t>lao sh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tong x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖场视频及音乐</t>
+    <rPh sb="0" eb="1">
+      <t>nuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:40- 2:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:46 - 3:06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要明天中午前准备好礼物及费用预算</t>
+    <rPh sb="0" eb="1">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong w</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhun b</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>li w</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fei y</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yu s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束词</t>
+    <rPh sb="0" eb="1">
+      <t>jie shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主持人</t>
+    <rPh sb="0" eb="1">
+      <t>zhu ch r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:06 - 3:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要选出主持人，主持人讲话内容</t>
+    <rPh sb="0" eb="1">
+      <t>x y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu ch r</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu ch r</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jiang h</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>nei r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人节目</t>
+    <rPh sb="0" eb="1">
+      <t>ge ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待挖掘</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wa j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖掘出有哪些人可以出节目</t>
+    <rPh sb="0" eb="1">
+      <t>wa j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>na x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke y</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对这四天的总结，及未来两年的展望</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>si t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zong j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei l</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>liang n</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhan w</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩老师，学生上台发言</t>
+    <rPh sb="0" eb="1">
+      <t>gan en</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lao sh</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xue sheng</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shang tai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fa yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确定视频和音乐，及贯穿全场的ppt
+许琪负责视频和音乐。</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>que d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin y</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>guan chuan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>quan ch</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>d</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xu qi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fu z</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>he</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yin y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要选出主持人，主持人串词？
+熊雨薇和吕伟京，各自负责自己的串词。</t>
+    <rPh sb="0" eb="1">
+      <t>x y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu ch r</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhu ch r</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chuan ci</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>he</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>lü</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ge zi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fu z</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zi j</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>d</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>chuan ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宪章是周鹏，手册是张恪易。各自负责汇报ppt。
+后期参加手册修订的同学，作为参加对抗的同学。对抗团队包括顾老师／戴老师／封老师等人。</t>
+    <rPh sb="0" eb="1">
+      <t>xian zh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhou peng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shou c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ge zi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fu z</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hui b</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>hou qi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>can j</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>shou ce</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>xiu d</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>d</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>tong x</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zuo w</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>can j</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>dui k</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>d</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>tong x</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>dui k</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>tuan d</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>bao k</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>lao sh</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定互动内容
+熊雨薇负责提问内容。</t>
+    <rPh sb="0" eb="1">
+      <t>que d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hu dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei r</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiong yu w</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu z</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti w</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nei r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定哪些人，有哪些社团？
+贺琪（跑步），易文轩（眼摄团），</t>
     <rPh sb="0" eb="1">
       <t>que d</t>
     </rPh>
@@ -393,350 +835,134 @@
     <rPh sb="9" eb="10">
       <t>she t</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时长（min）</t>
-    <rPh sb="0" eb="1">
-      <t>shi chang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对未来两年的展望和总结</t>
-    <rPh sb="0" eb="1">
-      <t>dui</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wei l</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>liang n</t>
-    </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="13" eb="14">
+      <t>he qi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>pao b</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yi wen x</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>she</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>tuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要选出讲故事人
+志愿者待定（孙文博扮演顾老师？）。易文轩负责通知所有人九点前把XLP印象最深的事写在个人简历中（鼓励用形象生动的语气描述），助教负责汇总。</t>
+    <rPh sb="0" eb="1">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan ch</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiang gu sh</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi yuan zh</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dai ding</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>sun wen bo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ban yan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gu lao sh</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fu z</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>tong zh</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>suo y r</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>jiu d</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>yin x</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zui sh</t>
+    </rPh>
+    <rPh sb="47" eb="48">
       <t>d</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhan w</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>he</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zong j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有同学</t>
-    <rPh sb="0" eb="1">
-      <t>suo y</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tong x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每人的采访视频，每人几秒钟</t>
-    <rPh sb="0" eb="1">
-      <t>mei ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="48" eb="49">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>xie z</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ge ren jian l</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>gu li</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>xing x</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>sheng d</t>
+    </rPh>
+    <rPh sb="64" eb="65">
       <t>d</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>cai f</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi p</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>mei ren</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ji miao zh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩老师</t>
-    <rPh sb="0" eb="1">
-      <t>gan en</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lao sh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师，同学</t>
-    <rPh sb="0" eb="1">
-      <t>lao sh</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>tong x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暖场视频及音乐</t>
-    <rPh sb="0" eb="1">
-      <t>nuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi p</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yin y</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:40- 2:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:46 - 3:06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要明天中午前准备好礼物及费用预算</t>
-    <rPh sb="0" eb="1">
-      <t>xu y</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming t</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhong w</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>qian</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhun b</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>li w</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>fei y</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yu s</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束词</t>
-    <rPh sb="0" eb="1">
-      <t>jie shu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主持人</t>
-    <rPh sb="0" eb="1">
-      <t>zhu ch r</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:06 - 3:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要选出主持人，主持人讲话内容</t>
-    <rPh sb="0" eb="1">
-      <t>x y</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xuan d</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhu ch r</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhu ch r</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jiang h</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>nei r</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人节目</t>
-    <rPh sb="0" eb="1">
-      <t>ge ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jie m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待挖掘</t>
-    <rPh sb="0" eb="1">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wa j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挖掘出有哪些人可以出节目</t>
-    <rPh sb="0" eb="1">
-      <t>wa j</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>you</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>na x</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ren</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ke y</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>chu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>jie m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宪章是周鹏，手册是张恪易。各自负责汇报ppt。
-确定其余参加对抗的同学。助教团队有几人参加</t>
-    <rPh sb="0" eb="1">
-      <t>xian zh</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhou peng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shou c</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ge zi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
+    <rPh sb="65" eb="66">
+      <t>yu q</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>miao sh</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>zhu jiao</t>
+    </rPh>
+    <rPh sb="73" eb="74">
       <t>fu z</t>
     </rPh>
-    <rPh sb="17" eb="18">
-      <t>hui b</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>que d</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>qi yu</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>can j</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>dui k</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>d</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>tong x</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>zhu j</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>tuan d</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>you</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ji r</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>can j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待确定视频和音乐，及贯穿全场的ppt</t>
-    <rPh sb="0" eb="1">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>que d</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shi p</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>he</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yin y</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>guan chuan</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>quan ch</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>d</t>
+    <rPh sb="75" eb="76">
+      <t>hui z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务负责人</t>
+    <rPh sb="0" eb="1">
+      <t>ren w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu z</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -763,15 +989,16 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
@@ -787,7 +1014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.499984740745262"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,14 +1052,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1170,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,45 +1411,50 @@
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="61" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1238,16 +1470,17 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -1258,16 +1491,17 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -1278,225 +1512,229 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>39</v>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/汇报演出进程表.xlsx
+++ b/汇报演出进程表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>编号</t>
     <rPh sb="0" eb="1">
@@ -362,28 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每人的采访视频，每人几秒钟</t>
-    <rPh sb="0" eb="1">
-      <t>mei ren</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>d</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cai f</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shi p</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>mei ren</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ji miao zh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老师，同学</t>
     <rPh sb="0" eb="1">
       <t>lao sh</t>
@@ -653,8 +631,251 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>宪章是周鹏，手册是张恪易。各自负责汇报ppt。
+后期参加手册修订的同学，作为参加对抗的同学。对抗团队包括顾老师／戴老师／封老师等人。</t>
+    <rPh sb="0" eb="1">
+      <t>xian zh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhou peng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shou c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ge zi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fu z</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hui b</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>hou qi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>can j</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>shou ce</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>xiu d</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>d</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>tong x</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>zuo w</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>can j</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>dui k</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>d</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>tong x</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>dui k</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>tuan d</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>bao k</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>gu</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>lao sh</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定互动内容
+熊雨薇负责提问内容。</t>
+    <rPh sb="0" eb="1">
+      <t>que d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hu dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nei r</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiong yu w</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu z</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ti w</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>nei r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要选出讲故事人
+志愿者待定（孙文博扮演顾老师？）。易文轩负责通知所有人九点前把XLP印象最深的事写在个人简历中（鼓励用形象生动的语气描述），助教负责汇总。</t>
+    <rPh sb="0" eb="1">
+      <t>xu y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan ch</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jiang gu sh</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi yuan zh</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dai ding</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>sun wen bo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ban yan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>gu lao sh</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fu z</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>tong zh</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>suo y r</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>jiu d</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>yin x</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>zui sh</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>d</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>xie z</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ge ren jian l</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>gu li</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>xing x</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>sheng d</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>d</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>yu q</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>miao sh</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>zhu jiao</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>fu z</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>hui z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务负责人</t>
+    <rPh sb="0" eb="1">
+      <t>ren w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fu z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾玄</t>
+    <rPh sb="0" eb="1">
+      <t>jia x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董皓宇</t>
+    <rPh sb="0" eb="1">
+      <t>dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>需要选出主持人，主持人串词？
-熊雨薇和吕伟京，各自负责自己的串词。</t>
+熊雨薇和吕伟京，各自负责自己的串词，贺萌协助编写。</t>
     <rPh sb="0" eb="1">
       <t>x y</t>
     </rPh>
@@ -694,129 +915,31 @@
     <rPh sb="30" eb="31">
       <t>chuan ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宪章是周鹏，手册是张恪易。各自负责汇报ppt。
-后期参加手册修订的同学，作为参加对抗的同学。对抗团队包括顾老师／戴老师／封老师等人。</t>
-    <rPh sb="0" eb="1">
-      <t>xian zh</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhou peng</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shou c</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ge zi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>fu z</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>hui b</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>hou qi</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>can j</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>shou ce</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>xiu d</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>d</t>
-    </rPh>
     <rPh sb="33" eb="34">
-      <t>tong x</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>zuo w</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>can j</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>dui k</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>d</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>tong x</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>dui k</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>tuan d</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>bao k</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>gu</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>lao sh</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>deng</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定互动内容
-熊雨薇负责提问内容。</t>
-    <rPh sb="0" eb="1">
-      <t>que d</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hu dong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>nei r</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>xiong yu w</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fu z</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ti w</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>nei r</t>
+      <t>he meng</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>xie zhu</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>bian x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马博</t>
+    <rPh sb="0" eb="1">
+      <t>ma bo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>确定哪些人，有哪些社团？
-贺琪（跑步），易文轩（眼摄团），</t>
+许琪（跑步），易文轩（眼摄团），</t>
     <rPh sb="0" eb="1">
       <t>que d</t>
     </rPh>
@@ -836,7 +959,7 @@
       <t>she t</t>
     </rPh>
     <rPh sb="13" eb="14">
-      <t>he qi</t>
+      <t>xu qi</t>
     </rPh>
     <rPh sb="16" eb="17">
       <t>pao b</t>
@@ -856,114 +979,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要选出讲故事人
-志愿者待定（孙文博扮演顾老师？）。易文轩负责通知所有人九点前把XLP印象最深的事写在个人简历中（鼓励用形象生动的语气描述），助教负责汇总。</t>
-    <rPh sb="0" eb="1">
-      <t>xu y</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xuan ch</t>
+    <t>自发上台说一下，考虑一个仪式？</t>
+    <rPh sb="0" eb="1">
+      <t>zi fa</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang tai</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>jiang gu sh</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ren</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhi yuan zh</t>
+      <t>shuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi xia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kao l</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi g</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>dai ding</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>sun wen bo</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ban yan</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>gu lao sh</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>fu z</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>tong zh</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>suo y r</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>jiu d</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>qian</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ba</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>yin x</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>zui sh</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>d</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>xie z</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ge ren jian l</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>gu li</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>xing x</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>sheng d</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>d</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>yu q</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>miao sh</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>zhu jiao</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>fu z</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>hui z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务负责人</t>
-    <rPh sb="0" eb="1">
-      <t>ren w</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu z</t>
-    </rPh>
+      <t>yi shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾超</t>
+    <rPh sb="0" eb="1">
+      <t>jia chao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马博</t>
+    <rPh sb="0" eb="1">
+      <t>ma b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同编号1</t>
+    <rPh sb="0" eb="1">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bian h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会场布置，横幅，座位安排等</t>
+    <rPh sb="0" eb="1">
+      <t>hui ch</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu zh</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>heng fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zuo w</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>an p</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋含芙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1400,7 +1487,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,7 +1521,7 @@
         <v>19</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1442,17 +1529,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1471,9 +1560,11 @@
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1492,9 +1583,11 @@
         <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1513,9 +1606,11 @@
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1532,9 +1627,11 @@
         <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1553,16 +1650,18 @@
         <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1571,80 +1670,94 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>

--- a/汇报演出进程表.xlsx
+++ b/汇报演出进程表.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="汇报演出进程" sheetId="2" r:id="rId2"/>
+    <sheet name="汇报演出内容" sheetId="3" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
+    <sheet name="汇报演出进程" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>编号</t>
     <rPh sb="0" eb="1">
@@ -273,47 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各社团负责人</t>
-    <rPh sb="0" eb="1">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>she t</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fu z r</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热场，讲GIT使用故事，或者四天的行程模拟</t>
-    <rPh sb="3" eb="4">
-      <t>jiang</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shi y</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gu sh</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>huo zh</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>si t</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>d</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>xing ch</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>mo ni</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成果汇报（学员手册&amp;宪章）+ 对抗辩论 + 老师总结</t>
     <rPh sb="0" eb="1">
       <t>cheng g</t>
@@ -938,47 +898,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确定哪些人，有哪些社团？
-许琪（跑步），易文轩（眼摄团），</t>
-    <rPh sb="0" eb="1">
-      <t>que d</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>na x</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ren</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>you</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>na x</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>she t</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>xu qi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>pao b</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>yi wen x</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>yan</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>she</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>tuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自发上台说一下，考虑一个仪式？</t>
     <rPh sb="0" eb="1">
       <t>zi fa</t>
@@ -1011,13 +930,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>马博</t>
-    <rPh sb="0" eb="1">
-      <t>ma b</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同编号1</t>
     <rPh sb="0" eb="1">
       <t>tong</t>
@@ -1051,6 +963,104 @@
   </si>
   <si>
     <t>蒋含芙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：整体时间可能会延长20-30分钟。</t>
+    <rPh sb="0" eb="1">
+      <t>zhu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng t</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke neng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yan ch</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fen zh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热场，XLP中印象最深的事</t>
+    <rPh sb="6" eb="7">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin x</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zui sh</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>d</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放轻松视频</t>
+    <rPh sb="0" eb="1">
+      <t>bo f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qing s</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖场视频（过程回顾+老师访谈）</t>
+    <rPh sb="0" eb="1">
+      <t>nuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lao sh</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fang t</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲GIT及四天的行程模拟故事</t>
+    <rPh sb="0" eb="1">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>si t</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>d</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xing ch</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mo ni</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gu shi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1129,11 +1139,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1147,6 +1245,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1424,6 +1542,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A12:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1482,12 +1784,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1512,7 +1814,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>10</v>
@@ -1521,7 +1823,7 @@
         <v>19</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1529,18 +1831,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1560,57 +1862,47 @@
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1627,33 +1919,33 @@
         <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1661,22 +1953,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1684,107 +1976,59 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="F10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
+      <c r="G10" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -1797,21 +2041,33 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -1831,24 +2087,6 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
